--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/OHIO_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/OHIO_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D914"/>
+  <dimension ref="A1:D908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C27">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C36">
@@ -934,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="43">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C53">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C55">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C60">
@@ -1246,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="67">
@@ -1613,7 +1613,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C94">
@@ -1696,7 +1696,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C100">
@@ -1722,7 +1722,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C118">
@@ -2025,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="D124">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="125">
@@ -2161,12 +2161,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C135">
@@ -2192,7 +2192,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C137">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C139">
@@ -2264,7 +2264,7 @@
         <v>4</v>
       </c>
       <c r="D142">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="143">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C144">
@@ -2348,7 +2348,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C149">
@@ -2446,7 +2446,7 @@
         <v>4</v>
       </c>
       <c r="D156">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="157">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C160">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C168">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C170">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C177">
@@ -2758,7 +2758,7 @@
         <v>4</v>
       </c>
       <c r="D180">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="181">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C184">
@@ -2938,7 +2938,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C194">
@@ -2951,7 +2951,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C195">
@@ -2964,7 +2964,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C196">
@@ -3055,7 +3055,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C203">
@@ -3107,7 +3107,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C207">
@@ -3205,7 +3205,7 @@
         <v>4</v>
       </c>
       <c r="D214">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="215">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C216">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C218">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C220">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C221">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C224">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C230">
@@ -3431,13 +3431,13 @@
         <v>4</v>
       </c>
       <c r="D231">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C232">
@@ -3450,7 +3450,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C233">
@@ -3476,7 +3476,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C235">
@@ -3489,7 +3489,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C236">
@@ -3515,7 +3515,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C238">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C239">
@@ -3541,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C240">
@@ -3554,7 +3554,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C241">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C243">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C244">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C247">
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="D248">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="249">
@@ -3671,20 +3671,20 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C250">
         <v>4</v>
       </c>
       <c r="D250">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C251">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C253">
@@ -3808,7 +3808,7 @@
         <v>4</v>
       </c>
       <c r="D260">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="261">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C264">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C266">
@@ -3899,13 +3899,13 @@
         <v>4</v>
       </c>
       <c r="D267">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,14 +3918,14 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C269">
         <v>4</v>
       </c>
       <c r="D269">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="270">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C272">
@@ -4047,7 +4047,7 @@
         <v>4</v>
       </c>
       <c r="D278">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="279">
@@ -4092,7 +4092,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C282">
@@ -4157,14 +4157,14 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C287">
         <v>4</v>
       </c>
       <c r="D287">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="288">
@@ -4177,7 +4177,7 @@
         <v>4</v>
       </c>
       <c r="D288">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="289">
@@ -4222,7 +4222,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C292">
@@ -4255,13 +4255,13 @@
         <v>4</v>
       </c>
       <c r="D294">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C295">
@@ -4274,7 +4274,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C296">
@@ -4294,13 +4294,13 @@
         <v>4</v>
       </c>
       <c r="D297">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C298">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C300">
@@ -4391,7 +4391,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C305">
@@ -4417,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C307">
@@ -4430,7 +4430,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C308">
@@ -4443,7 +4443,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C309">
@@ -4495,7 +4495,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C313">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C314">
@@ -4591,7 +4591,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C320">
@@ -4604,7 +4604,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C321">
@@ -4721,7 +4721,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C330">
@@ -4734,7 +4734,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C331">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C335">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C339">
@@ -4955,7 +4955,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C348">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C352">
@@ -5020,7 +5020,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C353">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C357">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C361">
@@ -5144,7 +5144,7 @@
         <v>4</v>
       </c>
       <c r="D362">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="363">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C364">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C365">
@@ -5357,7 +5357,7 @@
         <v>4</v>
       </c>
       <c r="D378">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="379">
@@ -5370,7 +5370,7 @@
         <v>4</v>
       </c>
       <c r="D379">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="380">
@@ -5409,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="D382">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="383">
@@ -5435,7 +5435,7 @@
         <v>4</v>
       </c>
       <c r="D384">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="385">
@@ -5487,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="D388">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="389">
@@ -5669,7 +5669,7 @@
         <v>4</v>
       </c>
       <c r="D402">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="403">
@@ -5883,7 +5883,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C419">
@@ -5955,7 +5955,7 @@
         <v>4</v>
       </c>
       <c r="D424">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="425">
@@ -5981,7 +5981,7 @@
         <v>4</v>
       </c>
       <c r="D426">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="427">
@@ -6072,7 +6072,7 @@
         <v>4</v>
       </c>
       <c r="D433">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="434">
@@ -6098,7 +6098,7 @@
         <v>4</v>
       </c>
       <c r="D435">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="436">
@@ -6194,7 +6194,7 @@
         <v>4</v>
       </c>
       <c r="D442">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="443">
@@ -6233,7 +6233,7 @@
         <v>4</v>
       </c>
       <c r="D445">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="446">
@@ -6278,7 +6278,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C449">
@@ -6330,7 +6330,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C453">
@@ -6343,7 +6343,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C454">
@@ -6363,7 +6363,7 @@
         <v>4</v>
       </c>
       <c r="D455">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="456">
@@ -6389,13 +6389,13 @@
         <v>4</v>
       </c>
       <c r="D457">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C458">
@@ -6478,7 +6478,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C464">
@@ -6613,14 +6613,14 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C474">
         <v>4</v>
       </c>
       <c r="D474">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="475">
@@ -6652,7 +6652,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C477">
@@ -6722,7 +6722,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C482">
@@ -6735,7 +6735,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C483">
@@ -6774,7 +6774,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C486">
@@ -6787,20 +6787,20 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C487">
         <v>4</v>
       </c>
       <c r="D487">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C488">
@@ -6813,20 +6813,20 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C489">
         <v>4</v>
       </c>
       <c r="D489">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C490">
@@ -6885,7 +6885,7 @@
         <v>4</v>
       </c>
       <c r="D494">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="495">
@@ -6904,7 +6904,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C496">
@@ -6917,7 +6917,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C497">
@@ -6930,7 +6930,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C498">
@@ -6943,7 +6943,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C499">
@@ -6969,7 +6969,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C501">
@@ -7073,7 +7073,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C509">
@@ -7099,7 +7099,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C511">
@@ -7119,7 +7119,7 @@
         <v>4</v>
       </c>
       <c r="D512">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="513">
@@ -7314,7 +7314,7 @@
         <v>4</v>
       </c>
       <c r="D527">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="528">
@@ -7333,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C529">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C548">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C549">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C563">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C579">
@@ -8068,7 +8068,7 @@
         <v>4</v>
       </c>
       <c r="D585">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="586">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C587">
@@ -8120,7 +8120,7 @@
         <v>4</v>
       </c>
       <c r="D589">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="590">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C608">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C618">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C619">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C620">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C621">
@@ -8542,20 +8542,20 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C622">
         <v>4</v>
       </c>
       <c r="D622">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C623">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C624">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C625">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C628">
@@ -8729,7 +8729,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C636">
@@ -8879,7 +8879,7 @@
         <v>4</v>
       </c>
       <c r="D647">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="648">
@@ -8924,7 +8924,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C651">
@@ -8976,7 +8976,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C655">
@@ -9028,7 +9028,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C659">
@@ -9275,7 +9275,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C678">
@@ -9288,7 +9288,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C679">
@@ -9314,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C681">
@@ -9327,7 +9327,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C682">
@@ -9366,7 +9366,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C685">
@@ -9503,7 +9503,7 @@
         <v>4</v>
       </c>
       <c r="D695">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="696">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C700">
@@ -9592,7 +9592,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C702">
@@ -9631,7 +9631,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C705">
@@ -9644,7 +9644,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C706">
@@ -9657,7 +9657,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C707">
@@ -9683,7 +9683,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C709">
@@ -9747,7 +9747,7 @@
         <v>4</v>
       </c>
       <c r="D713">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="714">
@@ -9771,7 +9771,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C715">
@@ -9810,7 +9810,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C718">
@@ -9862,14 +9862,14 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C722">
         <v>4</v>
       </c>
       <c r="D722">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="723">
@@ -9901,7 +9901,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C725">
@@ -9927,7 +9927,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C727">
@@ -9979,7 +9979,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C731">
@@ -9992,7 +9992,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C732">
@@ -10005,7 +10005,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C733">
@@ -10025,7 +10025,7 @@
         <v>4</v>
       </c>
       <c r="D734">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="735">
@@ -10082,7 +10082,7 @@
         <v>4</v>
       </c>
       <c r="D738">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="739">
@@ -10545,7 +10545,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C773">
@@ -10680,7 +10680,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C783">
@@ -10693,7 +10693,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C784">
@@ -10789,7 +10789,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C791">
@@ -10893,7 +10893,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C799">
@@ -10906,7 +10906,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C800">
@@ -11036,7 +11036,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C810">
@@ -11082,7 +11082,7 @@
         <v>4</v>
       </c>
       <c r="D813">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="814">
@@ -11153,7 +11153,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C819">
@@ -11179,20 +11179,20 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C821">
         <v>4</v>
       </c>
       <c r="D821">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C822">
@@ -11329,13 +11329,13 @@
         <v>4</v>
       </c>
       <c r="D832">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C833">
@@ -11368,7 +11368,7 @@
         <v>4</v>
       </c>
       <c r="D835">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="836">
@@ -11452,14 +11452,14 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C842">
         <v>4</v>
       </c>
       <c r="D842">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="843">
@@ -11478,7 +11478,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C844">
@@ -11530,20 +11530,20 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C848">
         <v>4</v>
       </c>
       <c r="D848">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C849">
@@ -11582,7 +11582,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C852">
@@ -11602,7 +11602,7 @@
         <v>4</v>
       </c>
       <c r="D853">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="854">
@@ -11699,7 +11699,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C861">
@@ -11790,7 +11790,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C868">
@@ -11855,7 +11855,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C873">
@@ -11930,7 +11930,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C878">
@@ -12015,7 +12015,7 @@
         <v>4</v>
       </c>
       <c r="D884">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="885">
@@ -12047,7 +12047,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C887">
@@ -12125,7 +12125,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C893">
@@ -12203,7 +12203,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C899">
@@ -12216,7 +12216,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C900">
@@ -12242,7 +12242,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C902">
@@ -12301,7 +12301,7 @@
         <v>4</v>
       </c>
       <c r="D906">
-        <v>0.0009250693802035153</v>
+        <v>0.0009250693802035152</v>
       </c>
     </row>
     <row r="907">
@@ -12328,41 +12328,6 @@
       </c>
       <c r="D908">
         <v>1</v>
-      </c>
-    </row>
-    <row r="910">
-      <c r="A910" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
